--- a/apps/load_data/2019/02/PLMOVMAE.xlsx
+++ b/apps/load_data/2019/02/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2019\HHY0219\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2019\HHY0219\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC45BDA-BFB5-4FEA-8029-E0E36E046B67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2EA2D0-DA25-4AB3-B58A-222649149710}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$292</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$292</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12257" uniqueCount="3571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12235" uniqueCount="3568">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7786,9 +7787,6 @@
     <t>0051A         1</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>jhjfeeh11b11d1fl1jmhhfkgkech</t>
   </si>
   <si>
@@ -9196,9 +9194,6 @@
     <t>0057A         1</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -9572,9 +9567,6 @@
   </si>
   <si>
     <t>0168A         1</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10741,7 +10733,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -11581,10 +11573,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -47201,12 +47195,7 @@
       <c r="AA195" s="1">
         <v>0</v>
       </c>
-      <c r="AC195" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD195" s="1" t="s">
-        <v>2587</v>
-      </c>
+      <c r="AC195" s="3"/>
       <c r="AF195" s="1" t="s">
         <v>106</v>
       </c>
@@ -47262,7 +47251,7 @@
         <v>19</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BE195" s="1" t="s">
         <v>113</v>
@@ -47274,10 +47263,10 @@
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2589</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2590</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>118</v>
@@ -47289,7 +47278,7 @@
         <v>161</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -47310,19 +47299,19 @@
         <v>110</v>
       </c>
       <c r="CC195" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="CD195" s="1" t="s">
         <v>2592</v>
       </c>
-      <c r="CD195" s="1" t="s">
+      <c r="CE195" s="1" t="s">
         <v>2593</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2595</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2596</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>130</v>
@@ -47360,19 +47349,19 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2598</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2599</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="Q196" s="3">
         <v>27241</v>
@@ -47398,12 +47387,7 @@
       <c r="AB196" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="AC196" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD196" s="1" t="s">
-        <v>2587</v>
-      </c>
+      <c r="AC196" s="3"/>
       <c r="AF196" s="1" t="s">
         <v>106</v>
       </c>
@@ -47450,7 +47434,7 @@
         <v>110</v>
       </c>
       <c r="AZ196" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BB196" s="1">
         <v>2</v>
@@ -47459,7 +47443,7 @@
         <v>19</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BE196" s="1" t="s">
         <v>113</v>
@@ -47471,10 +47455,10 @@
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2603</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2604</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>118</v>
@@ -47486,13 +47470,13 @@
         <v>102</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BS196" s="3">
         <v>36949</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -47516,19 +47500,19 @@
         <v>110</v>
       </c>
       <c r="CC196" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="CD196" s="1" t="s">
         <v>2236</v>
       </c>
       <c r="CE196" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="CG196" s="1" t="s">
         <v>2608</v>
       </c>
-      <c r="CG196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2609</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2610</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>130</v>
@@ -47566,19 +47550,19 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2612</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2613</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="Q197" s="3">
         <v>25223</v>
@@ -47604,12 +47588,7 @@
       <c r="AB197" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="AC197" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD197" s="1" t="s">
-        <v>2587</v>
-      </c>
+      <c r="AC197" s="3"/>
       <c r="AF197" s="1" t="s">
         <v>106</v>
       </c>
@@ -47656,7 +47635,7 @@
         <v>110</v>
       </c>
       <c r="AZ197" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="BB197" s="1">
         <v>2</v>
@@ -47665,7 +47644,7 @@
         <v>19</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="BE197" s="1" t="s">
         <v>113</v>
@@ -47677,10 +47656,10 @@
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="BI197" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="BI197" s="1" t="s">
-        <v>2618</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>118</v>
@@ -47692,13 +47671,13 @@
         <v>102</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BS197" s="3">
         <v>36825</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -47722,19 +47701,19 @@
         <v>110</v>
       </c>
       <c r="CC197" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="CD197" s="1" t="s">
         <v>2621</v>
       </c>
-      <c r="CD197" s="1" t="s">
+      <c r="CE197" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="CG197" s="1" t="s">
+      <c r="CH197" s="1" t="s">
         <v>2624</v>
-      </c>
-      <c r="CH197" s="1" t="s">
-        <v>2625</v>
       </c>
       <c r="CI197" s="1" t="s">
         <v>130</v>
@@ -47772,19 +47751,19 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2627</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2628</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="Q198" s="3">
         <v>27018</v>
@@ -47807,12 +47786,7 @@
       <c r="AA198" s="1">
         <v>0</v>
       </c>
-      <c r="AC198" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD198" s="1" t="s">
-        <v>2587</v>
-      </c>
+      <c r="AC198" s="3"/>
       <c r="AF198" s="1" t="s">
         <v>106</v>
       </c>
@@ -47862,7 +47836,7 @@
         <v>110</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BB198" s="1">
         <v>2</v>
@@ -47871,7 +47845,7 @@
         <v>19</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BE198" s="1" t="s">
         <v>113</v>
@@ -47883,7 +47857,7 @@
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="BI198" s="1" t="s">
         <v>814</v>
@@ -47895,7 +47869,7 @@
         <v>105</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>122</v>
@@ -47913,16 +47887,16 @@
         <v>110</v>
       </c>
       <c r="CC198" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="CD198" s="1" t="s">
         <v>1375</v>
       </c>
       <c r="CE198" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="CG198" s="1" t="s">
         <v>2635</v>
-      </c>
-      <c r="CG198" s="1" t="s">
-        <v>2636</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>820</v>
@@ -47963,19 +47937,19 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2637</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="Q199" s="3">
         <v>29037</v>
@@ -48001,12 +47975,7 @@
       <c r="AB199" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="AC199" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD199" s="1" t="s">
-        <v>2587</v>
-      </c>
+      <c r="AC199" s="3"/>
       <c r="AF199" s="1" t="s">
         <v>106</v>
       </c>
@@ -48056,7 +48025,7 @@
         <v>110</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BB199" s="1">
         <v>2</v>
@@ -48065,7 +48034,7 @@
         <v>19</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BE199" s="1" t="s">
         <v>113</v>
@@ -48077,13 +48046,13 @@
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="BM199" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -48104,13 +48073,13 @@
         <v>746</v>
       </c>
       <c r="CD199" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="CE199" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2646</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2647</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>130</v>
@@ -48151,19 +48120,19 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2648</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2649</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2650</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="Q200" s="3">
         <v>26647</v>
@@ -48186,12 +48155,7 @@
       <c r="AA200" s="1">
         <v>0</v>
       </c>
-      <c r="AC200" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD200" s="1" t="s">
-        <v>2587</v>
-      </c>
+      <c r="AC200" s="3"/>
       <c r="AF200" s="1" t="s">
         <v>106</v>
       </c>
@@ -48241,7 +48205,7 @@
         <v>110</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="BB200" s="1">
         <v>2</v>
@@ -48250,7 +48214,7 @@
         <v>19</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="BE200" s="1" t="s">
         <v>113</v>
@@ -48262,7 +48226,7 @@
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="BI200" s="1" t="s">
         <v>652</v>
@@ -48274,7 +48238,7 @@
         <v>105</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -48292,16 +48256,16 @@
         <v>110</v>
       </c>
       <c r="CC200" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="CD200" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="CE200" s="1" t="s">
         <v>2656</v>
       </c>
-      <c r="CD200" s="1" t="s">
-        <v>2656</v>
-      </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2657</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2658</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>659</v>
@@ -48342,19 +48306,19 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2659</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2660</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2661</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="Q201" s="3">
         <v>25405</v>
@@ -48383,12 +48347,7 @@
       <c r="AA201" s="1">
         <v>0</v>
       </c>
-      <c r="AC201" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD201" s="1" t="s">
-        <v>2587</v>
-      </c>
+      <c r="AC201" s="3"/>
       <c r="AF201" s="1" t="s">
         <v>106</v>
       </c>
@@ -48435,7 +48394,7 @@
         <v>110</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="BB201" s="1">
         <v>2</v>
@@ -48444,7 +48403,7 @@
         <v>19</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="BE201" s="1" t="s">
         <v>113</v>
@@ -48456,10 +48415,10 @@
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="BI201" s="1" t="s">
         <v>2665</v>
-      </c>
-      <c r="BI201" s="1" t="s">
-        <v>2666</v>
       </c>
       <c r="BM201" s="1" t="s">
         <v>118</v>
@@ -48471,13 +48430,13 @@
         <v>119</v>
       </c>
       <c r="BR201" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="BS201" s="3">
         <v>35243</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -48495,19 +48454,19 @@
         <v>110</v>
       </c>
       <c r="CC201" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="CD201" s="1" t="s">
         <v>2669</v>
       </c>
-      <c r="CD201" s="1" t="s">
+      <c r="CE201" s="1" t="s">
         <v>2670</v>
       </c>
-      <c r="CE201" s="1" t="s">
+      <c r="CG201" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="CG201" s="1" t="s">
+      <c r="CH201" s="1" t="s">
         <v>2672</v>
-      </c>
-      <c r="CH201" s="1" t="s">
-        <v>2673</v>
       </c>
       <c r="CI201" s="1" t="s">
         <v>130</v>
@@ -48545,19 +48504,19 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2674</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2675</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2676</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="Q202" s="3">
         <v>28845</v>
@@ -48580,12 +48539,7 @@
       <c r="AA202" s="1">
         <v>0</v>
       </c>
-      <c r="AC202" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD202" s="1" t="s">
-        <v>2587</v>
-      </c>
+      <c r="AC202" s="3"/>
       <c r="AF202" s="1" t="s">
         <v>106</v>
       </c>
@@ -48635,7 +48589,7 @@
         <v>110</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="BB202" s="1">
         <v>2</v>
@@ -48644,7 +48598,7 @@
         <v>19</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="BE202" s="1" t="s">
         <v>113</v>
@@ -48656,7 +48610,7 @@
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>652</v>
@@ -48668,7 +48622,7 @@
         <v>105</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -48686,16 +48640,16 @@
         <v>110</v>
       </c>
       <c r="CC202" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="CD202" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="CD202" s="1" t="s">
+      <c r="CE202" s="1" t="s">
         <v>2683</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CG202" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2685</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>659</v>
@@ -48736,19 +48690,19 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2687</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2688</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="Q203" s="3">
         <v>21425</v>
@@ -48771,12 +48725,7 @@
       <c r="AA203" s="1">
         <v>0</v>
       </c>
-      <c r="AC203" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD203" s="1" t="s">
-        <v>2587</v>
-      </c>
+      <c r="AC203" s="3"/>
       <c r="AF203" s="1" t="s">
         <v>106</v>
       </c>
@@ -48826,7 +48775,7 @@
         <v>110</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="BB203" s="1">
         <v>2</v>
@@ -48835,7 +48784,7 @@
         <v>19</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="BE203" s="1" t="s">
         <v>113</v>
@@ -48847,7 +48796,7 @@
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BI203" s="1" t="s">
         <v>652</v>
@@ -48862,7 +48811,7 @@
         <v>161</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -48880,16 +48829,16 @@
         <v>110</v>
       </c>
       <c r="CC203" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="CD203" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="CD203" s="1" t="s">
+      <c r="CE203" s="1" t="s">
         <v>2695</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
         <v>2696</v>
-      </c>
-      <c r="CG203" s="1" t="s">
-        <v>2697</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>659</v>
@@ -48930,19 +48879,19 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2699</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2700</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="Q204" s="3">
         <v>23039</v>
@@ -48965,12 +48914,7 @@
       <c r="AA204" s="1">
         <v>0</v>
       </c>
-      <c r="AC204" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD204" s="1" t="s">
-        <v>2587</v>
-      </c>
+      <c r="AC204" s="3"/>
       <c r="AF204" s="1" t="s">
         <v>106</v>
       </c>
@@ -49017,7 +48961,7 @@
         <v>110</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="BB204" s="1">
         <v>2</v>
@@ -49026,7 +48970,7 @@
         <v>19</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="BE204" s="1" t="s">
         <v>113</v>
@@ -49038,10 +48982,10 @@
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="BI204" s="1" t="s">
         <v>2704</v>
-      </c>
-      <c r="BI204" s="1" t="s">
-        <v>2705</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>118</v>
@@ -49053,13 +48997,13 @@
         <v>225</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="BS204" s="3">
         <v>34307</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>122</v>
@@ -49077,19 +49021,19 @@
         <v>110</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="CD204" s="1" t="s">
         <v>461</v>
       </c>
       <c r="CE204" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="CG204" s="1" t="s">
         <v>2709</v>
       </c>
-      <c r="CG204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2710</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2711</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>130</v>
@@ -49127,19 +49071,19 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2712</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2713</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2714</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="Q205" s="3">
         <v>23286</v>
@@ -49165,12 +49109,7 @@
       <c r="AA205" s="1">
         <v>0</v>
       </c>
-      <c r="AC205" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD205" s="1" t="s">
-        <v>2587</v>
-      </c>
+      <c r="AC205" s="3"/>
       <c r="AF205" s="1" t="s">
         <v>106</v>
       </c>
@@ -49220,7 +49159,7 @@
         <v>110</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="BB205" s="1">
         <v>2</v>
@@ -49229,7 +49168,7 @@
         <v>19</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="BE205" s="1" t="s">
         <v>113</v>
@@ -49241,7 +49180,7 @@
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>937</v>
@@ -49253,7 +49192,7 @@
         <v>105</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -49274,16 +49213,16 @@
         <v>110</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2722</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2723</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>942</v>
@@ -49324,19 +49263,19 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2725</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2726</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P206" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="Q206" s="3">
         <v>26907</v>
@@ -49359,12 +49298,7 @@
       <c r="AA206" s="1">
         <v>0</v>
       </c>
-      <c r="AC206" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD206" s="1" t="s">
-        <v>2587</v>
-      </c>
+      <c r="AC206" s="3"/>
       <c r="AF206" s="1" t="s">
         <v>106</v>
       </c>
@@ -49411,7 +49345,7 @@
         <v>110</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="BB206" s="1">
         <v>2</v>
@@ -49420,7 +49354,7 @@
         <v>19</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="BE206" s="1" t="s">
         <v>113</v>
@@ -49432,10 +49366,10 @@
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="BI206" s="1" t="s">
         <v>2730</v>
-      </c>
-      <c r="BI206" s="1" t="s">
-        <v>2731</v>
       </c>
       <c r="BM206" s="1" t="s">
         <v>118</v>
@@ -49447,13 +49381,13 @@
         <v>119</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="BS206" s="3">
         <v>35950</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -49471,19 +49405,19 @@
         <v>110</v>
       </c>
       <c r="CC206" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="CD206" s="1" t="s">
         <v>2023</v>
       </c>
       <c r="CE206" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="CG206" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="CG206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2736</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2737</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>130</v>
@@ -49521,10 +49455,10 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2738</v>
-      </c>
-      <c r="L207" s="1" t="s">
-        <v>2739</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>397</v>
@@ -49605,7 +49539,7 @@
         <v>260</v>
       </c>
       <c r="CE207" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="208" spans="1:87" x14ac:dyDescent="0.25">
@@ -49619,10 +49553,10 @@
         <v>94</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2740</v>
-      </c>
-      <c r="L208" s="1" t="s">
-        <v>2741</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>397</v>
@@ -49691,7 +49625,7 @@
         <v>0</v>
       </c>
       <c r="BZ208" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="CA208" s="1" t="s">
         <v>124</v>
@@ -49703,7 +49637,7 @@
         <v>260</v>
       </c>
       <c r="CE208" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="209" spans="1:87" x14ac:dyDescent="0.25">
@@ -49738,19 +49672,19 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2743</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2744</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2745</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P209" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="Q209" s="3">
         <v>28642</v>
@@ -49822,7 +49756,7 @@
         <v>110</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="BB209" s="1">
         <v>2</v>
@@ -49831,7 +49765,7 @@
         <v>19</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="BE209" s="1" t="s">
         <v>113</v>
@@ -49843,7 +49777,7 @@
         <v>115</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>118</v>
@@ -49855,7 +49789,7 @@
         <v>161</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>122</v>
@@ -49873,16 +49807,16 @@
         <v>110</v>
       </c>
       <c r="CC209" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="CD209" s="1" t="s">
         <v>461</v>
       </c>
       <c r="CE209" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="CG209" s="1" t="s">
         <v>2752</v>
-      </c>
-      <c r="CG209" s="1" t="s">
-        <v>2753</v>
       </c>
       <c r="CH209" s="1" t="s">
         <v>130</v>
@@ -49923,19 +49857,19 @@
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2755</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2756</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P210" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="Q210" s="3">
         <v>28239</v>
@@ -50004,7 +49938,7 @@
         <v>110</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="BB210" s="1">
         <v>2</v>
@@ -50013,7 +49947,7 @@
         <v>19</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="BE210" s="1" t="s">
         <v>113</v>
@@ -50025,10 +49959,10 @@
         <v>115</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2760</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2761</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>118</v>
@@ -50040,13 +49974,13 @@
         <v>225</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="BS210" s="3">
         <v>36099</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>122</v>
@@ -50064,19 +49998,19 @@
         <v>110</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2764</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="CE210" s="1" t="s">
+      <c r="CG210" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="CG210" s="1" t="s">
+      <c r="CH210" s="1" t="s">
         <v>2767</v>
-      </c>
-      <c r="CH210" s="1" t="s">
-        <v>2768</v>
       </c>
       <c r="CI210" s="1" t="s">
         <v>130</v>
@@ -50114,19 +50048,19 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2769</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2770</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2771</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P211" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="Q211" s="3">
         <v>25589</v>
@@ -50195,7 +50129,7 @@
         <v>110</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="BB211" s="1">
         <v>2</v>
@@ -50204,7 +50138,7 @@
         <v>19</v>
       </c>
       <c r="BD211" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="BE211" s="1" t="s">
         <v>113</v>
@@ -50216,10 +50150,10 @@
         <v>115</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2775</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2776</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>118</v>
@@ -50231,13 +50165,13 @@
         <v>102</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="BS211" s="3">
         <v>37735</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>122</v>
@@ -50255,19 +50189,19 @@
         <v>110</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2780</v>
       </c>
-      <c r="CE211" s="1" t="s">
+      <c r="CG211" s="1" t="s">
         <v>2781</v>
       </c>
-      <c r="CG211" s="1" t="s">
+      <c r="CH211" s="1" t="s">
         <v>2782</v>
-      </c>
-      <c r="CH211" s="1" t="s">
-        <v>2783</v>
       </c>
       <c r="CI211" s="1" t="s">
         <v>130</v>
@@ -50305,19 +50239,19 @@
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2785</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2786</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P212" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="Q212" s="3">
         <v>29170</v>
@@ -50389,7 +50323,7 @@
         <v>110</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="BB212" s="1">
         <v>2</v>
@@ -50398,7 +50332,7 @@
         <v>19</v>
       </c>
       <c r="BD212" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="BE212" s="1" t="s">
         <v>113</v>
@@ -50410,7 +50344,7 @@
         <v>115</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>937</v>
@@ -50422,7 +50356,7 @@
         <v>105</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>122</v>
@@ -50440,16 +50374,16 @@
         <v>110</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>980</v>
       </c>
       <c r="CE212" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="CG212" s="1" t="s">
         <v>2793</v>
-      </c>
-      <c r="CG212" s="1" t="s">
-        <v>2794</v>
       </c>
       <c r="CH212" s="1" t="s">
         <v>942</v>
@@ -50490,19 +50424,19 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2795</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2796</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2797</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P213" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="Q213" s="3">
         <v>27250</v>
@@ -50529,7 +50463,7 @@
         <v>106</v>
       </c>
       <c r="AG213" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="AH213" s="1" t="s">
         <v>2151</v>
@@ -50574,7 +50508,7 @@
         <v>110</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="BB213" s="1">
         <v>2</v>
@@ -50583,7 +50517,7 @@
         <v>19</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="BE213" s="1" t="s">
         <v>113</v>
@@ -50595,7 +50529,7 @@
         <v>115</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>410</v>
@@ -50607,7 +50541,7 @@
         <v>105</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>122</v>
@@ -50628,13 +50562,13 @@
         <v>1777</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="CE213" s="1" t="s">
+      <c r="CG213" s="1" t="s">
         <v>2805</v>
-      </c>
-      <c r="CG213" s="1" t="s">
-        <v>2806</v>
       </c>
       <c r="CH213" s="1" t="s">
         <v>418</v>
@@ -50675,19 +50609,19 @@
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2807</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2808</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2809</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P214" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="Q214" s="3">
         <v>27999</v>
@@ -50759,7 +50693,7 @@
         <v>110</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="BB214" s="1">
         <v>2</v>
@@ -50768,7 +50702,7 @@
         <v>19</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="BE214" s="1" t="s">
         <v>113</v>
@@ -50780,7 +50714,7 @@
         <v>115</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>2234</v>
@@ -50792,7 +50726,7 @@
         <v>105</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>122</v>
@@ -50816,10 +50750,10 @@
         <v>1076</v>
       </c>
       <c r="CE214" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="CG214" s="1" t="s">
         <v>2815</v>
-      </c>
-      <c r="CG214" s="1" t="s">
-        <v>2816</v>
       </c>
       <c r="CH214" s="1" t="s">
         <v>2239</v>
@@ -50860,19 +50794,19 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2817</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2818</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2819</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P215" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="Q215" s="3">
         <v>29305</v>
@@ -50944,7 +50878,7 @@
         <v>110</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="BB215" s="1">
         <v>2</v>
@@ -50953,7 +50887,7 @@
         <v>19</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>113</v>
@@ -50965,7 +50899,7 @@
         <v>115</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>652</v>
@@ -50977,7 +50911,7 @@
         <v>105</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>122</v>
@@ -50995,16 +50929,16 @@
         <v>110</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2825</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2826</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CG215" s="1" t="s">
         <v>2827</v>
-      </c>
-      <c r="CG215" s="1" t="s">
-        <v>2828</v>
       </c>
       <c r="CH215" s="1" t="s">
         <v>659</v>
@@ -51045,19 +50979,19 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2829</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2830</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2831</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="Q216" s="3">
         <v>23125</v>
@@ -51090,7 +51024,7 @@
         <v>42247</v>
       </c>
       <c r="AD216" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="AF216" s="1" t="s">
         <v>106</v>
@@ -51144,7 +51078,7 @@
         <v>19</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="BE216" s="1" t="s">
         <v>113</v>
@@ -51156,10 +51090,10 @@
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="BI216" s="1" t="s">
         <v>2835</v>
-      </c>
-      <c r="BI216" s="1" t="s">
-        <v>2836</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>118</v>
@@ -51171,13 +51105,13 @@
         <v>225</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="BS216" s="3">
         <v>36580</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>122</v>
@@ -51198,7 +51132,7 @@
         <v>110</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="CD216" s="1" t="s">
         <v>308</v>
@@ -51207,10 +51141,10 @@
         <v>1808</v>
       </c>
       <c r="CG216" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="CH216" s="1" t="s">
         <v>2840</v>
-      </c>
-      <c r="CH216" s="1" t="s">
-        <v>2841</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>130</v>
@@ -51248,19 +51182,19 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2842</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2843</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2844</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="Q217" s="3">
         <v>30023</v>
@@ -51335,7 +51269,7 @@
         <v>19</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="BE217" s="1" t="s">
         <v>113</v>
@@ -51347,7 +51281,7 @@
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>2114</v>
@@ -51362,13 +51296,13 @@
         <v>119</v>
       </c>
       <c r="BR217" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="BS217" s="3">
         <v>37747</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>122</v>
@@ -51392,10 +51326,10 @@
         <v>733</v>
       </c>
       <c r="CE217" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="CG217" s="1" t="s">
         <v>2850</v>
-      </c>
-      <c r="CG217" s="1" t="s">
-        <v>2851</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>2121</v>
@@ -51436,19 +51370,19 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2852</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2853</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2854</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="Q218" s="3">
         <v>26205</v>
@@ -51526,7 +51460,7 @@
         <v>19</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>113</v>
@@ -51538,7 +51472,7 @@
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>118</v>
@@ -51547,7 +51481,7 @@
         <v>105</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>122</v>
@@ -51565,16 +51499,16 @@
         <v>110</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="CD218" s="1" t="s">
         <v>2859</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CE218" s="1" t="s">
         <v>2860</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CG218" s="1" t="s">
         <v>2861</v>
-      </c>
-      <c r="CG218" s="1" t="s">
-        <v>2862</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>130</v>
@@ -51615,19 +51549,19 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2863</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2864</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2865</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="Q219" s="3">
         <v>31662</v>
@@ -51705,7 +51639,7 @@
         <v>19</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>113</v>
@@ -51717,7 +51651,7 @@
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>652</v>
@@ -51729,7 +51663,7 @@
         <v>105</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -51747,16 +51681,16 @@
         <v>110</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2870</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2871</v>
       </c>
-      <c r="CE219" s="1" t="s">
+      <c r="CG219" s="1" t="s">
         <v>2872</v>
-      </c>
-      <c r="CG219" s="1" t="s">
-        <v>2873</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>659</v>
@@ -51797,19 +51731,19 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2874</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2875</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2876</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="Q220" s="3">
         <v>29117</v>
@@ -51884,7 +51818,7 @@
         <v>19</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="BE220" s="1" t="s">
         <v>113</v>
@@ -51896,10 +51830,10 @@
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2879</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2880</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>118</v>
@@ -51911,13 +51845,13 @@
         <v>102</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="BS220" s="3">
         <v>37334</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>122</v>
@@ -51938,16 +51872,16 @@
         <v>566</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="CE220" s="1" t="s">
         <v>2883</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CG220" s="1" t="s">
         <v>2884</v>
       </c>
-      <c r="CG220" s="1" t="s">
+      <c r="CH220" s="1" t="s">
         <v>2885</v>
-      </c>
-      <c r="CH220" s="1" t="s">
-        <v>2886</v>
       </c>
       <c r="CI220" s="1" t="s">
         <v>130</v>
@@ -51985,19 +51919,19 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2887</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2888</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2889</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="Q221" s="3">
         <v>30007</v>
@@ -52072,7 +52006,7 @@
         <v>19</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="BE221" s="1" t="s">
         <v>113</v>
@@ -52084,10 +52018,10 @@
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="BI221" s="1" t="s">
         <v>2892</v>
-      </c>
-      <c r="BI221" s="1" t="s">
-        <v>2893</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>118</v>
@@ -52099,13 +52033,13 @@
         <v>102</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="BS221" s="3">
         <v>37904</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>122</v>
@@ -52126,16 +52060,16 @@
         <v>1076</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2896</v>
       </c>
-      <c r="CE221" s="1" t="s">
+      <c r="CG221" s="1" t="s">
         <v>2897</v>
       </c>
-      <c r="CG221" s="1" t="s">
+      <c r="CH221" s="1" t="s">
         <v>2898</v>
-      </c>
-      <c r="CH221" s="1" t="s">
-        <v>2899</v>
       </c>
       <c r="CI221" s="1" t="s">
         <v>130</v>
@@ -52173,19 +52107,19 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2900</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2901</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2902</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="Q222" s="3">
         <v>26221</v>
@@ -52260,7 +52194,7 @@
         <v>19</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="BE222" s="1" t="s">
         <v>113</v>
@@ -52272,7 +52206,7 @@
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="BI222" s="1" t="s">
         <v>937</v>
@@ -52287,13 +52221,13 @@
         <v>119</v>
       </c>
       <c r="BR222" s="1" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="BS222" s="3">
         <v>36111</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>122</v>
@@ -52311,16 +52245,16 @@
         <v>110</v>
       </c>
       <c r="CC222" s="1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="CD222" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="CE222" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="CG222" s="1" t="s">
         <v>2909</v>
-      </c>
-      <c r="CG222" s="1" t="s">
-        <v>2910</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>942</v>
@@ -52361,19 +52295,19 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2911</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2912</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2913</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="Q223" s="3">
         <v>27571</v>
@@ -52448,7 +52382,7 @@
         <v>19</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="BE223" s="1" t="s">
         <v>113</v>
@@ -52460,10 +52394,10 @@
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="BI223" s="1" t="s">
         <v>2916</v>
-      </c>
-      <c r="BI223" s="1" t="s">
-        <v>2917</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>118</v>
@@ -52475,13 +52409,13 @@
         <v>119</v>
       </c>
       <c r="BR223" s="1" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="BS223" s="3">
         <v>37785</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -52499,19 +52433,19 @@
         <v>110</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2920</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2921</v>
       </c>
-      <c r="CE223" s="1" t="s">
+      <c r="CG223" s="1" t="s">
         <v>2922</v>
       </c>
-      <c r="CG223" s="1" t="s">
+      <c r="CH223" s="1" t="s">
         <v>2923</v>
-      </c>
-      <c r="CH223" s="1" t="s">
-        <v>2924</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>130</v>
@@ -52549,19 +52483,19 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2925</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2926</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2927</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="Q224" s="3">
         <v>30041</v>
@@ -52639,7 +52573,7 @@
         <v>19</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="BE224" s="1" t="s">
         <v>113</v>
@@ -52651,7 +52585,7 @@
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="BI224" s="1" t="s">
         <v>410</v>
@@ -52663,7 +52597,7 @@
         <v>105</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>122</v>
@@ -52684,13 +52618,13 @@
         <v>1413</v>
       </c>
       <c r="CD224" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="CE224" s="1" t="s">
         <v>2932</v>
       </c>
-      <c r="CE224" s="1" t="s">
+      <c r="CG224" s="1" t="s">
         <v>2933</v>
-      </c>
-      <c r="CG224" s="1" t="s">
-        <v>2934</v>
       </c>
       <c r="CH224" s="1" t="s">
         <v>418</v>
@@ -52731,19 +52665,19 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2935</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2936</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2937</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="Q225" s="3">
         <v>30993</v>
@@ -52815,7 +52749,7 @@
         <v>110</v>
       </c>
       <c r="AZ225" s="1" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="BB225" s="1">
         <v>2</v>
@@ -52824,7 +52758,7 @@
         <v>19</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="BE225" s="1" t="s">
         <v>113</v>
@@ -52836,7 +52770,7 @@
         <v>115</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>118</v>
@@ -52845,7 +52779,7 @@
         <v>105</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -52863,16 +52797,16 @@
         <v>110</v>
       </c>
       <c r="CC225" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="CD225" s="1" t="s">
         <v>2943</v>
       </c>
-      <c r="CD225" s="1" t="s">
+      <c r="CE225" s="1" t="s">
         <v>2944</v>
       </c>
-      <c r="CE225" s="1" t="s">
+      <c r="CG225" s="1" t="s">
         <v>2945</v>
-      </c>
-      <c r="CG225" s="1" t="s">
-        <v>2946</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>130</v>
@@ -52913,19 +52847,19 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2947</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2948</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2949</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P226" s="1" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="Q226" s="3">
         <v>30065</v>
@@ -52997,7 +52931,7 @@
         <v>110</v>
       </c>
       <c r="AZ226" s="1" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="BB226" s="1">
         <v>2</v>
@@ -53006,7 +52940,7 @@
         <v>19</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="BE226" s="1" t="s">
         <v>113</v>
@@ -53018,7 +52952,7 @@
         <v>115</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="BI226" s="1" t="s">
         <v>410</v>
@@ -53030,7 +52964,7 @@
         <v>105</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>122</v>
@@ -53048,16 +52982,16 @@
         <v>110</v>
       </c>
       <c r="CC226" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="CD226" s="1" t="s">
         <v>1258</v>
       </c>
       <c r="CE226" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="CG226" s="1" t="s">
         <v>2955</v>
-      </c>
-      <c r="CG226" s="1" t="s">
-        <v>2956</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>418</v>
@@ -53098,19 +53032,19 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2957</v>
       </c>
-      <c r="L227" s="1" t="s">
+      <c r="N227" s="1" t="s">
         <v>2958</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2959</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P227" s="1" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="Q227" s="3">
         <v>30033</v>
@@ -53182,7 +53116,7 @@
         <v>110</v>
       </c>
       <c r="AZ227" s="1" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="BB227" s="1">
         <v>2</v>
@@ -53191,7 +53125,7 @@
         <v>19</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="BE227" s="1" t="s">
         <v>113</v>
@@ -53203,7 +53137,7 @@
         <v>115</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>118</v>
@@ -53212,7 +53146,7 @@
         <v>105</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>122</v>
@@ -53233,13 +53167,13 @@
         <v>1258</v>
       </c>
       <c r="CD227" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="CE227" s="1" t="s">
         <v>2965</v>
       </c>
-      <c r="CE227" s="1" t="s">
+      <c r="CG227" s="1" t="s">
         <v>2966</v>
-      </c>
-      <c r="CG227" s="1" t="s">
-        <v>2967</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>130</v>
@@ -53280,19 +53214,19 @@
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2968</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="N228" s="1" t="s">
         <v>2969</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>2970</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P228" s="1" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="Q228" s="3">
         <v>29411</v>
@@ -53361,7 +53295,7 @@
         <v>110</v>
       </c>
       <c r="AZ228" s="1" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="BB228" s="1">
         <v>2</v>
@@ -53370,7 +53304,7 @@
         <v>19</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="BE228" s="1" t="s">
         <v>113</v>
@@ -53382,7 +53316,7 @@
         <v>115</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="BI228" s="1" t="s">
         <v>2114</v>
@@ -53397,13 +53331,13 @@
         <v>225</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="BS228" s="3">
         <v>37513</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>122</v>
@@ -53421,16 +53355,16 @@
         <v>110</v>
       </c>
       <c r="CC228" s="1" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="CD228" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE228" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="CG228" s="1" t="s">
         <v>2978</v>
-      </c>
-      <c r="CG228" s="1" t="s">
-        <v>2979</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>2121</v>
@@ -53471,19 +53405,19 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2980</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2981</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2982</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P229" s="1" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="Q229" s="3">
         <v>32173</v>
@@ -53558,7 +53492,7 @@
         <v>19</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="BE229" s="1" t="s">
         <v>113</v>
@@ -53570,10 +53504,10 @@
         <v>115</v>
       </c>
       <c r="BH229" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="BI229" s="1" t="s">
         <v>2985</v>
-      </c>
-      <c r="BI229" s="1" t="s">
-        <v>2986</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>118</v>
@@ -53585,13 +53519,13 @@
         <v>102</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="BS229" s="3">
         <v>41024</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>122</v>
@@ -53609,19 +53543,19 @@
         <v>110</v>
       </c>
       <c r="CC229" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="CD229" s="1" t="s">
         <v>2989</v>
       </c>
-      <c r="CD229" s="1" t="s">
+      <c r="CE229" s="1" t="s">
         <v>2990</v>
       </c>
-      <c r="CE229" s="1" t="s">
+      <c r="CG229" s="1" t="s">
         <v>2991</v>
       </c>
-      <c r="CG229" s="1" t="s">
+      <c r="CH229" s="1" t="s">
         <v>2992</v>
-      </c>
-      <c r="CH229" s="1" t="s">
-        <v>2993</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>130</v>
@@ -53659,19 +53593,19 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2994</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2995</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2996</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P230" s="1" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="Q230" s="3">
         <v>18645</v>
@@ -53698,7 +53632,7 @@
         <v>106</v>
       </c>
       <c r="AG230" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="AH230" s="1" t="s">
         <v>2151</v>
@@ -53722,28 +53656,28 @@
         <v>100</v>
       </c>
       <c r="AQ230" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="AR230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY230" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ230" s="1" t="s">
         <v>2998</v>
-      </c>
-      <c r="AR230" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS230" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT230" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU230" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV230" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY230" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ230" s="1" t="s">
-        <v>2999</v>
       </c>
       <c r="BB230" s="1">
         <v>2</v>
@@ -53752,7 +53686,7 @@
         <v>19</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="BE230" s="1" t="s">
         <v>113</v>
@@ -53764,7 +53698,7 @@
         <v>115</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="BI230" s="1" t="s">
         <v>2114</v>
@@ -53779,13 +53713,13 @@
         <v>119</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="BS230" s="3">
         <v>34808</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>122</v>
@@ -53803,16 +53737,16 @@
         <v>110</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>3004</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>3005</v>
       </c>
-      <c r="CE230" s="1" t="s">
+      <c r="CG230" s="1" t="s">
         <v>3006</v>
-      </c>
-      <c r="CG230" s="1" t="s">
-        <v>3007</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>2121</v>
@@ -53853,19 +53787,19 @@
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>3008</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>3009</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>3010</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P231" s="1" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="Q231" s="3">
         <v>30408</v>
@@ -53934,7 +53868,7 @@
         <v>110</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="BB231" s="1">
         <v>2</v>
@@ -53943,7 +53877,7 @@
         <v>19</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="BE231" s="1" t="s">
         <v>113</v>
@@ -53955,10 +53889,10 @@
         <v>115</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>3014</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>3015</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>118</v>
@@ -53970,13 +53904,13 @@
         <v>102</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="BS231" s="3">
         <v>37336</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>122</v>
@@ -53994,19 +53928,19 @@
         <v>110</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>3018</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>3019</v>
       </c>
-      <c r="CE231" s="1" t="s">
+      <c r="CG231" s="1" t="s">
         <v>3020</v>
       </c>
-      <c r="CG231" s="1" t="s">
+      <c r="CH231" s="1" t="s">
         <v>3021</v>
-      </c>
-      <c r="CH231" s="1" t="s">
-        <v>3022</v>
       </c>
       <c r="CI231" s="1" t="s">
         <v>130</v>
@@ -54044,19 +53978,19 @@
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>3023</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>3024</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>3025</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P232" s="1" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="Q232" s="3">
         <v>28132</v>
@@ -54128,7 +54062,7 @@
         <v>110</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="BB232" s="1">
         <v>2</v>
@@ -54137,7 +54071,7 @@
         <v>19</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="BE232" s="1" t="s">
         <v>113</v>
@@ -54149,10 +54083,10 @@
         <v>115</v>
       </c>
       <c r="BH232" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="BI232" s="1" t="s">
         <v>3029</v>
-      </c>
-      <c r="BI232" s="1" t="s">
-        <v>3030</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>118</v>
@@ -54161,7 +54095,7 @@
         <v>105</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>122</v>
@@ -54179,19 +54113,19 @@
         <v>110</v>
       </c>
       <c r="CC232" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="CD232" s="1" t="s">
         <v>3032</v>
       </c>
-      <c r="CD232" s="1" t="s">
+      <c r="CE232" s="1" t="s">
         <v>3033</v>
       </c>
-      <c r="CE232" s="1" t="s">
+      <c r="CG232" s="1" t="s">
         <v>3034</v>
       </c>
-      <c r="CG232" s="1" t="s">
+      <c r="CH232" s="1" t="s">
         <v>3035</v>
-      </c>
-      <c r="CH232" s="1" t="s">
-        <v>3036</v>
       </c>
       <c r="CI232" s="1" t="s">
         <v>130</v>
@@ -54229,19 +54163,19 @@
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>3037</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>3038</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>3039</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P233" s="1" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="Q233" s="3">
         <v>31743</v>
@@ -54319,7 +54253,7 @@
         <v>19</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="BE233" s="1" t="s">
         <v>113</v>
@@ -54331,7 +54265,7 @@
         <v>115</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>118</v>
@@ -54340,7 +54274,7 @@
         <v>105</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>122</v>
@@ -54358,16 +54292,16 @@
         <v>110</v>
       </c>
       <c r="CC233" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="CD233" s="1" t="s">
         <v>3044</v>
       </c>
-      <c r="CD233" s="1" t="s">
+      <c r="CE233" s="1" t="s">
         <v>3045</v>
       </c>
-      <c r="CE233" s="1" t="s">
+      <c r="CG233" s="1" t="s">
         <v>3046</v>
-      </c>
-      <c r="CG233" s="1" t="s">
-        <v>3047</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>130</v>
@@ -54390,7 +54324,7 @@
         <v>90</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>92</v>
@@ -54402,16 +54336,16 @@
         <v>94</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>3049</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>3050</v>
-      </c>
-      <c r="L234" s="1" t="s">
-        <v>3051</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>100</v>
@@ -54480,7 +54414,7 @@
         <v>0</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>124</v>
@@ -54492,7 +54426,7 @@
         <v>260</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="235" spans="1:87" x14ac:dyDescent="0.25">
@@ -54527,19 +54461,19 @@
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>3053</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>3054</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>3055</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P235" s="1" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="Q235" s="3">
         <v>23750</v>
@@ -54568,12 +54502,7 @@
       <c r="AA235" s="1">
         <v>0</v>
       </c>
-      <c r="AC235" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD235" s="1" t="s">
-        <v>3057</v>
-      </c>
+      <c r="AC235" s="3"/>
       <c r="AF235" s="1" t="s">
         <v>106</v>
       </c>
@@ -54623,7 +54552,7 @@
         <v>110</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="BB235" s="1">
         <v>2</v>
@@ -54632,7 +54561,7 @@
         <v>19</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="BE235" s="1" t="s">
         <v>113</v>
@@ -54644,10 +54573,10 @@
         <v>115</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="BI235" s="1" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>118</v>
@@ -54656,7 +54585,7 @@
         <v>105</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>122</v>
@@ -54680,16 +54609,16 @@
         <v>1310</v>
       </c>
       <c r="CD235" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="CE235" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="CG235" s="1" t="s">
         <v>3063</v>
       </c>
-      <c r="CE235" s="1" t="s">
+      <c r="CH235" s="1" t="s">
         <v>3064</v>
-      </c>
-      <c r="CG235" s="1" t="s">
-        <v>3065</v>
-      </c>
-      <c r="CH235" s="1" t="s">
-        <v>3066</v>
       </c>
       <c r="CI235" s="1" t="s">
         <v>130</v>
@@ -54727,10 +54656,10 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>100</v>
@@ -54754,7 +54683,7 @@
         <v>106</v>
       </c>
       <c r="AG236" s="1" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="AH236" s="1" t="s">
         <v>61</v>
@@ -54799,7 +54728,7 @@
         <v>0</v>
       </c>
       <c r="BZ236" s="1" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="CA236" s="1" t="s">
         <v>124</v>
@@ -54811,7 +54740,7 @@
         <v>260</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="237" spans="1:87" x14ac:dyDescent="0.25">
@@ -54846,10 +54775,10 @@
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>100</v>
@@ -54936,7 +54865,7 @@
         <v>260</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="238" spans="1:87" x14ac:dyDescent="0.25">
@@ -54953,7 +54882,7 @@
         <v>90</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>92</v>
@@ -54965,16 +54894,16 @@
         <v>94</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
@@ -55043,7 +54972,7 @@
         <v>0</v>
       </c>
       <c r="BZ238" s="1" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="CA238" s="1" t="s">
         <v>124</v>
@@ -55055,7 +54984,7 @@
         <v>260</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="239" spans="1:87" x14ac:dyDescent="0.25">
@@ -55090,10 +55019,10 @@
         <v>96</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
@@ -55117,7 +55046,7 @@
         <v>106</v>
       </c>
       <c r="AG239" s="1" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="AH239" s="1" t="s">
         <v>406</v>
@@ -55174,7 +55103,7 @@
         <v>260</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="240" spans="1:87" x14ac:dyDescent="0.25">
@@ -55209,10 +55138,10 @@
         <v>96</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
@@ -55236,7 +55165,7 @@
         <v>106</v>
       </c>
       <c r="AG240" s="1" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="AH240" s="1" t="s">
         <v>406</v>
@@ -55293,7 +55222,7 @@
         <v>260</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="241" spans="1:87" x14ac:dyDescent="0.25">
@@ -55328,10 +55257,10 @@
         <v>96</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
@@ -55355,7 +55284,7 @@
         <v>106</v>
       </c>
       <c r="AG241" s="1" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="AH241" s="1" t="s">
         <v>406</v>
@@ -55412,7 +55341,7 @@
         <v>260</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="242" spans="1:87" x14ac:dyDescent="0.25">
@@ -55447,10 +55376,10 @@
         <v>96</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -55474,7 +55403,7 @@
         <v>106</v>
       </c>
       <c r="AG242" s="1" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="AH242" s="1" t="s">
         <v>406</v>
@@ -55531,7 +55460,7 @@
         <v>260</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="243" spans="1:87" x14ac:dyDescent="0.25">
@@ -55566,10 +55495,10 @@
         <v>96</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
@@ -55650,7 +55579,7 @@
         <v>260</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="244" spans="1:87" x14ac:dyDescent="0.25">
@@ -55685,10 +55614,10 @@
         <v>96</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -55769,7 +55698,7 @@
         <v>260</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="245" spans="1:87" x14ac:dyDescent="0.25">
@@ -55804,10 +55733,10 @@
         <v>96</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -55888,7 +55817,7 @@
         <v>260</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="246" spans="1:87" x14ac:dyDescent="0.25">
@@ -55923,10 +55852,10 @@
         <v>96</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -56007,7 +55936,7 @@
         <v>260</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="247" spans="1:87" x14ac:dyDescent="0.25">
@@ -56042,19 +55971,19 @@
         <v>96</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>3092</v>
-      </c>
-      <c r="L247" s="1" t="s">
-        <v>3093</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>3094</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="Q247" s="3">
         <v>26043</v>
@@ -56077,12 +56006,7 @@
       <c r="AA247" s="1">
         <v>0</v>
       </c>
-      <c r="AC247" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD247" s="1" t="s">
-        <v>3057</v>
-      </c>
+      <c r="AC247" s="3"/>
       <c r="AF247" s="1" t="s">
         <v>106</v>
       </c>
@@ -56135,7 +56059,7 @@
         <v>19</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="BE247" s="1" t="s">
         <v>113</v>
@@ -56147,7 +56071,7 @@
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
       <c r="BI247" s="1" t="s">
         <v>937</v>
@@ -56162,13 +56086,13 @@
         <v>102</v>
       </c>
       <c r="BR247" s="1" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
       <c r="BS247" s="3">
         <v>36306</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -56186,16 +56110,16 @@
         <v>110</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="CE247" s="1" t="s">
         <v>3100</v>
       </c>
-      <c r="CD247" s="1" t="s">
+      <c r="CG247" s="1" t="s">
         <v>3101</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>3102</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3103</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>942</v>
@@ -56236,19 +56160,19 @@
         <v>96</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>3103</v>
+      </c>
+      <c r="N248" s="1" t="s">
         <v>3104</v>
-      </c>
-      <c r="L248" s="1" t="s">
-        <v>3105</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>3106</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="Q248" s="3">
         <v>29945</v>
@@ -56271,12 +56195,7 @@
       <c r="AA248" s="1">
         <v>0</v>
       </c>
-      <c r="AC248" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD248" s="1" t="s">
-        <v>3057</v>
-      </c>
+      <c r="AC248" s="3"/>
       <c r="AF248" s="1" t="s">
         <v>106</v>
       </c>
@@ -56332,7 +56251,7 @@
         <v>19</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="BE248" s="1" t="s">
         <v>113</v>
@@ -56344,7 +56263,7 @@
         <v>115</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>118</v>
@@ -56353,7 +56272,7 @@
         <v>105</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -56371,16 +56290,16 @@
         <v>110</v>
       </c>
       <c r="CC248" s="1" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="CD248" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="CG248" s="1" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>130</v>
@@ -56421,19 +56340,19 @@
         <v>96</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>3112</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="N249" s="1" t="s">
         <v>3114</v>
-      </c>
-      <c r="L249" s="1" t="s">
-        <v>3115</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>3116</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="Q249" s="3">
         <v>29034</v>
@@ -56459,12 +56378,7 @@
       <c r="AB249" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="AC249" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD249" s="1" t="s">
-        <v>3057</v>
-      </c>
+      <c r="AC249" s="3"/>
       <c r="AF249" s="1" t="s">
         <v>106</v>
       </c>
@@ -56517,7 +56431,7 @@
         <v>19</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="BE249" s="1" t="s">
         <v>113</v>
@@ -56529,7 +56443,7 @@
         <v>115</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="BI249" s="1" t="s">
         <v>410</v>
@@ -56544,13 +56458,13 @@
         <v>102</v>
       </c>
       <c r="BR249" s="1" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="BS249" s="3">
         <v>38234</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -56568,16 +56482,16 @@
         <v>110</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="CD249" s="1" t="s">
         <v>1139</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>418</v>
@@ -56618,19 +56532,19 @@
         <v>96</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>3124</v>
+      </c>
+      <c r="N250" s="1" t="s">
         <v>3125</v>
-      </c>
-      <c r="L250" s="1" t="s">
-        <v>3126</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>3127</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P250" s="1" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="Q250" s="3">
         <v>29062</v>
@@ -56653,12 +56567,7 @@
       <c r="AA250" s="1">
         <v>0</v>
       </c>
-      <c r="AC250" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD250" s="1" t="s">
-        <v>3057</v>
-      </c>
+      <c r="AC250" s="3"/>
       <c r="AF250" s="1" t="s">
         <v>106</v>
       </c>
@@ -56714,7 +56623,7 @@
         <v>19</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="BE250" s="1" t="s">
         <v>113</v>
@@ -56726,7 +56635,7 @@
         <v>115</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="BI250" s="1" t="s">
         <v>814</v>
@@ -56738,7 +56647,7 @@
         <v>105</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -56756,16 +56665,16 @@
         <v>110</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>3130</v>
+      </c>
+      <c r="CD250" s="1" t="s">
+        <v>3131</v>
+      </c>
+      <c r="CE250" s="1" t="s">
         <v>3132</v>
       </c>
-      <c r="CD250" s="1" t="s">
+      <c r="CG250" s="1" t="s">
         <v>3133</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>3134</v>
-      </c>
-      <c r="CG250" s="1" t="s">
-        <v>3135</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>820</v>
@@ -56806,19 +56715,19 @@
         <v>96</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="N251" s="1" t="s">
         <v>3136</v>
-      </c>
-      <c r="L251" s="1" t="s">
-        <v>3137</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>3138</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="Q251" s="3">
         <v>30275</v>
@@ -56841,12 +56750,7 @@
       <c r="AA251" s="1">
         <v>0</v>
       </c>
-      <c r="AC251" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD251" s="1" t="s">
-        <v>3057</v>
-      </c>
+      <c r="AC251" s="3"/>
       <c r="AF251" s="1" t="s">
         <v>106</v>
       </c>
@@ -56902,7 +56806,7 @@
         <v>19</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="BE251" s="1" t="s">
         <v>113</v>
@@ -56914,7 +56818,7 @@
         <v>115</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="BI251" s="1" t="s">
         <v>814</v>
@@ -56926,7 +56830,7 @@
         <v>105</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -56944,16 +56848,16 @@
         <v>110</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="CE251" s="1" t="s">
         <v>3142</v>
       </c>
-      <c r="CD251" s="1" t="s">
-        <v>3143</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3144</v>
-      </c>
       <c r="CG251" s="1" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>820</v>
@@ -56994,19 +56898,19 @@
         <v>96</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="N252" s="1" t="s">
         <v>3145</v>
-      </c>
-      <c r="L252" s="1" t="s">
-        <v>3146</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>3147</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="Q252" s="3">
         <v>29181</v>
@@ -57029,12 +56933,7 @@
       <c r="AA252" s="1">
         <v>0</v>
       </c>
-      <c r="AC252" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD252" s="1" t="s">
-        <v>3057</v>
-      </c>
+      <c r="AC252" s="3"/>
       <c r="AF252" s="1" t="s">
         <v>106</v>
       </c>
@@ -57087,7 +56986,7 @@
         <v>19</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="BE252" s="1" t="s">
         <v>113</v>
@@ -57099,10 +56998,10 @@
         <v>115</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="BI252" s="1" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>118</v>
@@ -57114,13 +57013,13 @@
         <v>225</v>
       </c>
       <c r="BR252" s="1" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="BS252" s="3">
         <v>37069</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -57141,16 +57040,16 @@
         <v>831</v>
       </c>
       <c r="CD252" s="1" t="s">
+        <v>3152</v>
+      </c>
+      <c r="CE252" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="CG252" s="1" t="s">
         <v>3154</v>
       </c>
-      <c r="CE252" s="1" t="s">
+      <c r="CH252" s="1" t="s">
         <v>3155</v>
-      </c>
-      <c r="CG252" s="1" t="s">
-        <v>3156</v>
-      </c>
-      <c r="CH252" s="1" t="s">
-        <v>3157</v>
       </c>
       <c r="CI252" s="1" t="s">
         <v>130</v>
@@ -57188,19 +57087,19 @@
         <v>96</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>3157</v>
+      </c>
+      <c r="N253" s="1" t="s">
         <v>3158</v>
-      </c>
-      <c r="L253" s="1" t="s">
-        <v>3159</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>3160</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="Q253" s="3">
         <v>30033</v>
@@ -57223,12 +57122,7 @@
       <c r="AA253" s="1">
         <v>0</v>
       </c>
-      <c r="AC253" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD253" s="1" t="s">
-        <v>3057</v>
-      </c>
+      <c r="AC253" s="3"/>
       <c r="AF253" s="1" t="s">
         <v>106</v>
       </c>
@@ -57284,7 +57178,7 @@
         <v>19</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="BE253" s="1" t="s">
         <v>113</v>
@@ -57308,7 +57202,7 @@
         <v>105</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>122</v>
@@ -57326,13 +57220,13 @@
         <v>110</v>
       </c>
       <c r="CC253" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="CD253" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="CE253" s="1" t="s">
         <v>3164</v>
-      </c>
-      <c r="CD253" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="CE253" s="1" t="s">
-        <v>3166</v>
       </c>
       <c r="CG253" s="1" t="s">
         <v>1156</v>
@@ -57376,19 +57270,19 @@
         <v>96</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="N254" s="1" t="s">
         <v>3167</v>
-      </c>
-      <c r="L254" s="1" t="s">
-        <v>3168</v>
-      </c>
-      <c r="N254" s="1" t="s">
-        <v>3169</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="Q254" s="3">
         <v>21523</v>
@@ -57418,7 +57312,7 @@
         <v>43403</v>
       </c>
       <c r="AD254" s="1" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="AF254" s="1" t="s">
         <v>106</v>
@@ -57469,7 +57363,7 @@
         <v>110</v>
       </c>
       <c r="AZ254" s="1" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="BB254" s="1">
         <v>2</v>
@@ -57478,7 +57372,7 @@
         <v>19</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="BE254" s="1" t="s">
         <v>113</v>
@@ -57490,7 +57384,7 @@
         <v>115</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>118</v>
@@ -57499,7 +57393,7 @@
         <v>105</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
@@ -57517,16 +57411,16 @@
         <v>110</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="CD254" s="1" t="s">
         <v>2248</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -57567,19 +57461,19 @@
         <v>96</v>
       </c>
       <c r="K255" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="N255" s="1" t="s">
         <v>3179</v>
-      </c>
-      <c r="L255" s="1" t="s">
-        <v>3180</v>
-      </c>
-      <c r="N255" s="1" t="s">
-        <v>3181</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="Q255" s="3">
         <v>26843</v>
@@ -57602,12 +57496,7 @@
       <c r="AA255" s="1">
         <v>0</v>
       </c>
-      <c r="AC255" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD255" s="1" t="s">
-        <v>3183</v>
-      </c>
+      <c r="AC255" s="3"/>
       <c r="AF255" s="1" t="s">
         <v>106</v>
       </c>
@@ -57654,7 +57543,7 @@
         <v>110</v>
       </c>
       <c r="AZ255" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="BB255" s="1">
         <v>2</v>
@@ -57663,7 +57552,7 @@
         <v>19</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="BE255" s="1" t="s">
         <v>113</v>
@@ -57675,7 +57564,7 @@
         <v>115</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="BI255" s="1" t="s">
         <v>190</v>
@@ -57690,13 +57579,13 @@
         <v>225</v>
       </c>
       <c r="BR255" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="BS255" s="3">
         <v>35125</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -57714,16 +57603,16 @@
         <v>110</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>196</v>
@@ -57764,19 +57653,19 @@
         <v>96</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="Q256" s="3">
         <v>31362</v>
@@ -57854,7 +57743,7 @@
         <v>19</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>115</v>
@@ -57863,7 +57752,7 @@
         <v>118</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -57881,13 +57770,13 @@
         <v>92</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="CD256" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="CG256" s="1" t="s">
         <v>130</v>
@@ -57931,19 +57820,19 @@
         <v>96</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="Q257" s="3">
         <v>31362</v>
@@ -58021,7 +57910,7 @@
         <v>19</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>115</v>
@@ -58030,7 +57919,7 @@
         <v>118</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -58051,10 +57940,10 @@
         <v>612</v>
       </c>
       <c r="CD257" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="CG257" s="1" t="s">
         <v>130</v>
@@ -58098,19 +57987,19 @@
         <v>96</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P258" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="Q258" s="3">
         <v>18106</v>
@@ -58137,7 +58026,7 @@
         <v>106</v>
       </c>
       <c r="AG258" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="AH258" s="1" t="s">
         <v>2400</v>
@@ -58188,7 +58077,7 @@
         <v>19</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>115</v>
@@ -58200,7 +58089,7 @@
         <v>161</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
@@ -58218,13 +58107,13 @@
         <v>110</v>
       </c>
       <c r="CC258" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="CD258" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="CG258" s="1" t="s">
         <v>130</v>
@@ -58268,22 +58157,22 @@
         <v>96</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="Q259" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="R259" s="1" t="s">
         <v>102</v>
@@ -58358,7 +58247,7 @@
         <v>19</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>115</v>
@@ -58367,7 +58256,7 @@
         <v>118</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -58376,7 +58265,7 @@
         <v>0</v>
       </c>
       <c r="BZ259" s="1" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="CA259" s="1" t="s">
         <v>124</v>
@@ -58385,13 +58274,13 @@
         <v>110</v>
       </c>
       <c r="CC259" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="CG259" s="1" t="s">
         <v>130</v>
@@ -58429,7 +58318,7 @@
         <v>94</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>96</v>
@@ -58438,10 +58327,10 @@
         <v>263</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="N260" s="1" t="s">
         <v>265</v>
@@ -58471,7 +58360,7 @@
         <v>42582</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>106</v>
@@ -58528,13 +58417,13 @@
         <v>0</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="BI260" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
@@ -58576,10 +58465,10 @@
         <v>276</v>
       </c>
       <c r="CG260" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="CH260" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="CI260" s="1" t="s">
         <v>130</v>
@@ -58599,7 +58488,7 @@
         <v>234</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>92</v>
@@ -58617,16 +58506,16 @@
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="Q261" s="3">
         <v>17060</v>
@@ -58659,13 +58548,13 @@
         <v>42628</v>
       </c>
       <c r="AD261" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="AF261" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG261" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="AH261" s="1" t="s">
         <v>139</v>
@@ -58710,22 +58599,22 @@
         <v>110</v>
       </c>
       <c r="AZ261" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="BB261" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC261" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD261" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="BH261" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="BI261" s="1" t="s">
         <v>3242</v>
-      </c>
-      <c r="BB261" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC261" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD261" s="1" t="s">
-        <v>3243</v>
-      </c>
-      <c r="BH261" s="1" t="s">
-        <v>3244</v>
-      </c>
-      <c r="BI261" s="1" t="s">
-        <v>3245</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
@@ -58734,7 +58623,7 @@
         <v>105</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>122</v>
@@ -58743,7 +58632,7 @@
         <v>0</v>
       </c>
       <c r="BZ261" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="CA261" s="1" t="s">
         <v>124</v>
@@ -58758,13 +58647,13 @@
         <v>126</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="CH261" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="CI261" s="1" t="s">
         <v>130</v>
@@ -58784,7 +58673,7 @@
         <v>234</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>110</v>
@@ -58802,16 +58691,16 @@
         <v>96</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="Q262" s="3">
         <v>26864</v>
@@ -58841,7 +58730,7 @@
         <v>42735</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>106</v>
@@ -58895,10 +58784,10 @@
         <v>0</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>118</v>
@@ -58910,13 +58799,13 @@
         <v>225</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="BS262" s="3">
         <v>102</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -58937,16 +58826,16 @@
         <v>110</v>
       </c>
       <c r="CC262" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="CD262" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="CE262" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="CG262" s="1" t="s">
         <v>3259</v>
-      </c>
-      <c r="CD262" s="1" t="s">
-        <v>3260</v>
-      </c>
-      <c r="CE262" s="1" t="s">
-        <v>3261</v>
-      </c>
-      <c r="CG262" s="1" t="s">
-        <v>3262</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>130</v>
@@ -58987,16 +58876,16 @@
         <v>96</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="Q263" s="3">
         <v>25379</v>
@@ -59026,7 +58915,7 @@
         <v>39800</v>
       </c>
       <c r="AD263" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="AF263" s="1" t="s">
         <v>241</v>
@@ -59080,10 +58969,10 @@
         <v>0</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>118</v>
@@ -59095,13 +58984,13 @@
         <v>397</v>
       </c>
       <c r="BR263" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="BS263" s="3">
         <v>35915</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>122</v>
@@ -59131,10 +59020,10 @@
         <v>474</v>
       </c>
       <c r="CE263" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="CG263" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -59157,7 +59046,7 @@
         <v>90</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>110</v>
@@ -59169,22 +59058,22 @@
         <v>94</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="Q264" s="3">
         <v>17470</v>
@@ -59214,7 +59103,7 @@
         <v>43100</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>106</v>
@@ -59271,10 +59160,10 @@
         <v>0</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>118</v>
@@ -59283,7 +59172,7 @@
         <v>105</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>122</v>
@@ -59307,16 +59196,16 @@
         <v>110</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="CG264" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>130</v>
@@ -59357,16 +59246,16 @@
         <v>96</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="Q265" s="3">
         <v>23356</v>
@@ -59393,7 +59282,7 @@
         <v>43105</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>106</v>
@@ -59447,10 +59336,10 @@
         <v>0</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>118</v>
@@ -59462,13 +59351,13 @@
         <v>102</v>
       </c>
       <c r="BR265" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="BS265" s="3">
         <v>34412</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>122</v>
@@ -59486,16 +59375,16 @@
         <v>110</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="CD265" s="1" t="s">
         <v>2573</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="CG265" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="CH265" s="1" t="s">
         <v>130</v>
@@ -59536,16 +59425,16 @@
         <v>96</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="Q266" s="3">
         <v>17726</v>
@@ -59578,7 +59467,7 @@
         <v>43312</v>
       </c>
       <c r="AD266" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="AF266" s="1" t="s">
         <v>241</v>
@@ -59629,7 +59518,7 @@
         <v>110</v>
       </c>
       <c r="AZ266" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="BB266" s="1">
         <v>0</v>
@@ -59638,10 +59527,10 @@
         <v>0</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>118</v>
@@ -59650,7 +59539,7 @@
         <v>105</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>122</v>
@@ -59668,16 +59557,16 @@
         <v>110</v>
       </c>
       <c r="CC266" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="CE266" s="1" t="s">
         <v>1007</v>
       </c>
       <c r="CG266" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>130</v>
@@ -59718,16 +59607,16 @@
         <v>96</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="Q267" s="3">
         <v>22645</v>
@@ -59754,13 +59643,13 @@
         <v>43298</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG267" s="1" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="AH267" s="1" t="s">
         <v>61</v>
@@ -59808,13 +59697,13 @@
         <v>0</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="BI267" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>118</v>
@@ -59823,13 +59712,13 @@
         <v>102</v>
       </c>
       <c r="BR267" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="BS267" s="3">
         <v>35209</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>122</v>
@@ -59838,7 +59727,7 @@
         <v>0</v>
       </c>
       <c r="BZ267" s="1" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="CA267" s="1" t="s">
         <v>124</v>
@@ -59850,16 +59739,16 @@
         <v>1861</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="CG267" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="CH267" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="CI267" s="1" t="s">
         <v>130</v>
@@ -59879,7 +59768,7 @@
         <v>90</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>92</v>
@@ -59891,22 +59780,22 @@
         <v>94</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="Q268" s="3">
         <v>17041</v>
@@ -59933,7 +59822,7 @@
         <v>42735</v>
       </c>
       <c r="AD268" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="AF268" s="1" t="s">
         <v>106</v>
@@ -59990,10 +59879,10 @@
         <v>0</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>118</v>
@@ -60002,7 +59891,7 @@
         <v>105</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>122</v>
@@ -60014,7 +59903,7 @@
         <v>100</v>
       </c>
       <c r="BZ268" s="1" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="CA268" s="1" t="s">
         <v>124</v>
@@ -60023,16 +59912,16 @@
         <v>110</v>
       </c>
       <c r="CC268" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="CD268" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="CE268" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="CG268" s="1" t="s">
         <v>3321</v>
-      </c>
-      <c r="CD268" s="1" t="s">
-        <v>3322</v>
-      </c>
-      <c r="CE268" s="1" t="s">
-        <v>3323</v>
-      </c>
-      <c r="CG268" s="1" t="s">
-        <v>3324</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>130</v>
@@ -60073,16 +59962,16 @@
         <v>96</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="Q269" s="3">
         <v>30147</v>
@@ -60105,17 +59994,12 @@
       <c r="AA269" s="1">
         <v>0</v>
       </c>
-      <c r="AC269" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD269" s="1" t="s">
-        <v>3057</v>
-      </c>
+      <c r="AC269" s="3"/>
       <c r="AF269" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG269" s="1" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="AH269" s="1" t="s">
         <v>406</v>
@@ -60163,10 +60047,10 @@
         <v>0</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>118</v>
@@ -60178,13 +60062,13 @@
         <v>102</v>
       </c>
       <c r="BR269" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="BS269" s="3">
         <v>37124</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>122</v>
@@ -60202,16 +60086,16 @@
         <v>110</v>
       </c>
       <c r="CC269" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="CD269" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="CG269" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>130</v>
@@ -60252,16 +60136,16 @@
         <v>96</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="M270" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="Q270" s="3">
         <v>17821</v>
@@ -60297,7 +60181,7 @@
         <v>43388</v>
       </c>
       <c r="AD270" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="AF270" s="1" t="s">
         <v>106</v>
@@ -60348,7 +60232,7 @@
         <v>110</v>
       </c>
       <c r="AZ270" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="BB270" s="1">
         <v>0</v>
@@ -60357,10 +60241,10 @@
         <v>0</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="BM270" s="1" t="s">
         <v>118</v>
@@ -60369,7 +60253,7 @@
         <v>105</v>
       </c>
       <c r="BT270" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="BU270" s="1" t="s">
         <v>122</v>
@@ -60387,16 +60271,16 @@
         <v>110</v>
       </c>
       <c r="CC270" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="CD270" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="CE270" s="1" t="s">
         <v>552</v>
       </c>
       <c r="CG270" s="1" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="CH270" s="1" t="s">
         <v>130</v>
@@ -60410,10 +60294,10 @@
         <v>87</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1385</v>
@@ -60428,7 +60312,7 @@
         <v>93</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1385</v>
@@ -60437,19 +60321,19 @@
         <v>862</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P271" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="Q271" s="3">
         <v>24006</v>
@@ -60497,7 +60381,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -60533,7 +60417,7 @@
         <v>19</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="BE271" s="1" t="s">
         <v>113</v>
@@ -60545,13 +60429,13 @@
         <v>115</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="BM271" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT271" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="BU271" s="1" t="s">
         <v>122</v>
@@ -60578,10 +60462,10 @@
         <v>1204</v>
       </c>
       <c r="CE271" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="CG271" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="CH271" s="1" t="s">
         <v>130</v>
@@ -60595,10 +60479,10 @@
         <v>87</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1385</v>
@@ -60613,7 +60497,7 @@
         <v>93</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1385</v>
@@ -60622,10 +60506,10 @@
         <v>862</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>397</v>
@@ -60664,7 +60548,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -60712,7 +60596,7 @@
         <v>260</v>
       </c>
       <c r="CE272" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="273" spans="1:87" x14ac:dyDescent="0.25">
@@ -60720,10 +60604,10 @@
         <v>87</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1385</v>
@@ -60738,7 +60622,7 @@
         <v>93</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1385</v>
@@ -60747,19 +60631,19 @@
         <v>862</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P273" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="Q273" s="3">
         <v>26193</v>
@@ -60807,7 +60691,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="1" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="AO273" s="1">
         <v>0</v>
@@ -60843,7 +60727,7 @@
         <v>19</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="BE273" s="1" t="s">
         <v>113</v>
@@ -60855,13 +60739,13 @@
         <v>115</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="BM273" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT273" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="BU273" s="1" t="s">
         <v>122</v>
@@ -60882,16 +60766,16 @@
         <v>92</v>
       </c>
       <c r="CC273" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="CD273" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="CE273" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="CG273" s="1" t="s">
         <v>3368</v>
-      </c>
-      <c r="CD273" s="1" t="s">
-        <v>3369</v>
-      </c>
-      <c r="CE273" s="1" t="s">
-        <v>3370</v>
-      </c>
-      <c r="CG273" s="1" t="s">
-        <v>3371</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>130</v>
@@ -60905,10 +60789,10 @@
         <v>87</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1385</v>
@@ -60923,7 +60807,7 @@
         <v>93</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1385</v>
@@ -60932,19 +60816,19 @@
         <v>862</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P274" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="Q274" s="3">
         <v>24325</v>
@@ -61028,7 +60912,7 @@
         <v>19</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="BE274" s="1" t="s">
         <v>113</v>
@@ -61040,13 +60924,13 @@
         <v>115</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="BM274" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT274" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="BU274" s="1" t="s">
         <v>122</v>
@@ -61067,7 +60951,7 @@
         <v>110</v>
       </c>
       <c r="CC274" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="CD274" s="1" t="s">
         <v>656</v>
@@ -61076,7 +60960,7 @@
         <v>552</v>
       </c>
       <c r="CG274" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="CH274" s="1" t="s">
         <v>130</v>
@@ -61090,10 +60974,10 @@
         <v>87</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1385</v>
@@ -61108,7 +60992,7 @@
         <v>93</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1385</v>
@@ -61117,19 +61001,19 @@
         <v>862</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P275" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="Q275" s="3">
         <v>24848</v>
@@ -61180,7 +61064,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="AO275" s="1">
         <v>0</v>
@@ -61216,7 +61100,7 @@
         <v>19</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="BE275" s="1" t="s">
         <v>113</v>
@@ -61228,13 +61112,13 @@
         <v>115</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="BM275" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT275" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="BU275" s="1" t="s">
         <v>122</v>
@@ -61258,13 +61142,13 @@
         <v>535</v>
       </c>
       <c r="CD275" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="CE275" s="1" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="CG275" s="1" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
       <c r="CH275" s="1" t="s">
         <v>130</v>
@@ -61278,10 +61162,10 @@
         <v>87</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1385</v>
@@ -61296,7 +61180,7 @@
         <v>93</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1385</v>
@@ -61305,19 +61189,19 @@
         <v>862</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P276" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="Q276" s="3">
         <v>27702</v>
@@ -61401,7 +61285,7 @@
         <v>19</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="BE276" s="1" t="s">
         <v>113</v>
@@ -61413,13 +61297,13 @@
         <v>115</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="BM276" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT276" s="1" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="BU276" s="1" t="s">
         <v>122</v>
@@ -61440,16 +61324,16 @@
         <v>110</v>
       </c>
       <c r="CC276" s="1" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="CD276" s="1" t="s">
         <v>668</v>
       </c>
       <c r="CE276" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="CG276" s="1" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>130</v>
@@ -61463,10 +61347,10 @@
         <v>87</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1385</v>
@@ -61481,7 +61365,7 @@
         <v>93</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1385</v>
@@ -61490,19 +61374,19 @@
         <v>862</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P277" s="1" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="Q277" s="3">
         <v>23289</v>
@@ -61535,7 +61419,7 @@
         <v>106</v>
       </c>
       <c r="AG277" s="1" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="AH277" s="1" t="s">
         <v>588</v>
@@ -61553,7 +61437,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="1" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="AO277" s="1">
         <v>0</v>
@@ -61589,7 +61473,7 @@
         <v>19</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="BE277" s="1" t="s">
         <v>113</v>
@@ -61601,13 +61485,13 @@
         <v>115</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="BM277" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT277" s="1" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="BU277" s="1" t="s">
         <v>122</v>
@@ -61628,16 +61512,16 @@
         <v>110</v>
       </c>
       <c r="CC277" s="1" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="CD277" s="1" t="s">
         <v>1123</v>
       </c>
       <c r="CE277" s="1" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="CG277" s="1" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="CH277" s="1" t="s">
         <v>130</v>
@@ -61651,10 +61535,10 @@
         <v>87</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1385</v>
@@ -61669,7 +61553,7 @@
         <v>93</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1385</v>
@@ -61678,19 +61562,19 @@
         <v>862</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P278" s="1" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="Q278" s="3">
         <v>16546</v>
@@ -61738,7 +61622,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="AO278" s="1">
         <v>0</v>
@@ -61774,7 +61658,7 @@
         <v>19</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="BE278" s="1" t="s">
         <v>113</v>
@@ -61786,13 +61670,13 @@
         <v>115</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="BM278" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT278" s="1" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="BU278" s="1" t="s">
         <v>122</v>
@@ -61816,13 +61700,13 @@
         <v>1106</v>
       </c>
       <c r="CD278" s="1" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="CE278" s="1" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="CG278" s="1" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="CH278" s="1" t="s">
         <v>130</v>
@@ -61836,10 +61720,10 @@
         <v>87</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1385</v>
@@ -61854,7 +61738,7 @@
         <v>93</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1385</v>
@@ -61863,19 +61747,19 @@
         <v>862</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P279" s="1" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
       <c r="Q279" s="3">
         <v>12691</v>
@@ -61923,7 +61807,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="AO279" s="1">
         <v>0</v>
@@ -61959,7 +61843,7 @@
         <v>19</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="BE279" s="1" t="s">
         <v>113</v>
@@ -61971,13 +61855,13 @@
         <v>115</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="BM279" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT279" s="1" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="BU279" s="1" t="s">
         <v>122</v>
@@ -62004,10 +61888,10 @@
         <v>2369</v>
       </c>
       <c r="CE279" s="1" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
       <c r="CG279" s="1" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
       <c r="CH279" s="1" t="s">
         <v>130</v>
@@ -62021,10 +61905,10 @@
         <v>87</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1385</v>
@@ -62039,7 +61923,7 @@
         <v>93</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1385</v>
@@ -62048,19 +61932,19 @@
         <v>862</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="L280" s="1" t="s">
         <v>2514</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P280" s="1" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="Q280" s="3">
         <v>23611</v>
@@ -62090,7 +61974,7 @@
         <v>106</v>
       </c>
       <c r="AG280" s="1" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="AH280" s="1" t="s">
         <v>588</v>
@@ -62105,7 +61989,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="1" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
       <c r="AO280" s="1">
         <v>0</v>
@@ -62138,19 +62022,19 @@
         <v>19</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
       <c r="BG280" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="BM280" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT280" s="1" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
       <c r="BU280" s="1" t="s">
         <v>122</v>
@@ -62168,16 +62052,16 @@
         <v>110</v>
       </c>
       <c r="CC280" s="1" t="s">
+        <v>3437</v>
+      </c>
+      <c r="CD280" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="CE280" s="1" t="s">
+        <v>3439</v>
+      </c>
+      <c r="CG280" s="1" t="s">
         <v>3440</v>
-      </c>
-      <c r="CD280" s="1" t="s">
-        <v>3441</v>
-      </c>
-      <c r="CE280" s="1" t="s">
-        <v>3442</v>
-      </c>
-      <c r="CG280" s="1" t="s">
-        <v>3443</v>
       </c>
       <c r="CH280" s="1" t="s">
         <v>130</v>
@@ -62191,10 +62075,10 @@
         <v>87</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1385</v>
@@ -62209,7 +62093,7 @@
         <v>93</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1385</v>
@@ -62218,13 +62102,13 @@
         <v>862</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="L281" s="1" t="s">
         <v>2523</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>100</v>
@@ -62308,19 +62192,19 @@
         <v>19</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="BG281" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
       <c r="BM281" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT281" s="1" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="BU281" s="1" t="s">
         <v>122</v>
@@ -62341,16 +62225,16 @@
         <v>2436</v>
       </c>
       <c r="CC281" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="CD281" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="CE281" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="CG281" s="1" t="s">
         <v>3449</v>
-      </c>
-      <c r="CD281" s="1" t="s">
-        <v>3450</v>
-      </c>
-      <c r="CE281" s="1" t="s">
-        <v>3451</v>
-      </c>
-      <c r="CG281" s="1" t="s">
-        <v>3452</v>
       </c>
       <c r="CH281" s="1" t="s">
         <v>130</v>
@@ -62364,10 +62248,10 @@
         <v>87</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1385</v>
@@ -62382,7 +62266,7 @@
         <v>93</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1385</v>
@@ -62391,19 +62275,19 @@
         <v>862</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P282" s="1" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="Q282" s="3">
         <v>18056</v>
@@ -62481,19 +62365,19 @@
         <v>19</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
       <c r="BG282" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="BM282" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT282" s="1" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
       <c r="BU282" s="1" t="s">
         <v>122</v>
@@ -62514,13 +62398,13 @@
         <v>1325</v>
       </c>
       <c r="CD282" s="1" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="CE282" s="1" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="CG282" s="1" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
       <c r="CH282" s="1" t="s">
         <v>130</v>
@@ -62534,10 +62418,10 @@
         <v>87</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1385</v>
@@ -62552,7 +62436,7 @@
         <v>93</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1385</v>
@@ -62561,19 +62445,19 @@
         <v>862</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P283" s="1" t="s">
-        <v>3465</v>
+        <v>3462</v>
       </c>
       <c r="Q283" s="3">
         <v>26349</v>
@@ -62618,7 +62502,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="1" t="s">
-        <v>3466</v>
+        <v>3463</v>
       </c>
       <c r="AO283" s="1">
         <v>0</v>
@@ -62654,7 +62538,7 @@
         <v>19</v>
       </c>
       <c r="BD283" s="1" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="BE283" s="1" t="s">
         <v>113</v>
@@ -62666,13 +62550,13 @@
         <v>115</v>
       </c>
       <c r="BH283" s="1" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
       <c r="BM283" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT283" s="1" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
       <c r="BU283" s="1" t="s">
         <v>122</v>
@@ -62693,16 +62577,16 @@
         <v>92</v>
       </c>
       <c r="CC283" s="1" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
       <c r="CD283" s="1" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="CE283" s="1" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
       <c r="CG283" s="1" t="s">
-        <v>3472</v>
+        <v>3469</v>
       </c>
       <c r="CH283" s="1" t="s">
         <v>130</v>
@@ -62716,10 +62600,10 @@
         <v>87</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1385</v>
@@ -62734,7 +62618,7 @@
         <v>93</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1385</v>
@@ -62743,19 +62627,19 @@
         <v>862</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>3473</v>
+        <v>3470</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>3474</v>
+        <v>3471</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>3475</v>
+        <v>3472</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P284" s="1" t="s">
-        <v>3476</v>
+        <v>3473</v>
       </c>
       <c r="Q284" s="3">
         <v>30589</v>
@@ -62803,7 +62687,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="AO284" s="1">
         <v>0</v>
@@ -62839,7 +62723,7 @@
         <v>19</v>
       </c>
       <c r="BD284" s="1" t="s">
-        <v>3477</v>
+        <v>3474</v>
       </c>
       <c r="BE284" s="1" t="s">
         <v>113</v>
@@ -62851,13 +62735,13 @@
         <v>115</v>
       </c>
       <c r="BH284" s="1" t="s">
-        <v>3478</v>
+        <v>3475</v>
       </c>
       <c r="BM284" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT284" s="1" t="s">
-        <v>3479</v>
+        <v>3476</v>
       </c>
       <c r="BU284" s="1" t="s">
         <v>122</v>
@@ -62878,16 +62762,16 @@
         <v>110</v>
       </c>
       <c r="CC284" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="CD284" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="CE284" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="CG284" s="1" t="s">
         <v>3480</v>
-      </c>
-      <c r="CD284" s="1" t="s">
-        <v>3481</v>
-      </c>
-      <c r="CE284" s="1" t="s">
-        <v>3482</v>
-      </c>
-      <c r="CG284" s="1" t="s">
-        <v>3483</v>
       </c>
       <c r="CH284" s="1" t="s">
         <v>130</v>
@@ -62901,10 +62785,10 @@
         <v>87</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1385</v>
@@ -62919,7 +62803,7 @@
         <v>93</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>1385</v>
@@ -62928,19 +62812,19 @@
         <v>862</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>3484</v>
+        <v>3481</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P285" s="1" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
       <c r="Q285" s="3">
         <v>27354</v>
@@ -62988,7 +62872,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="AO285" s="1">
         <v>0</v>
@@ -63024,7 +62908,7 @@
         <v>19</v>
       </c>
       <c r="BD285" s="1" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
       <c r="BE285" s="1" t="s">
         <v>113</v>
@@ -63036,13 +62920,13 @@
         <v>115</v>
       </c>
       <c r="BH285" s="1" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
       <c r="BM285" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT285" s="1" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
       <c r="BU285" s="1" t="s">
         <v>122</v>
@@ -63063,16 +62947,16 @@
         <v>110</v>
       </c>
       <c r="CC285" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="CD285" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="CE285" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="CG285" s="1" t="s">
         <v>3491</v>
-      </c>
-      <c r="CD285" s="1" t="s">
-        <v>3492</v>
-      </c>
-      <c r="CE285" s="1" t="s">
-        <v>3493</v>
-      </c>
-      <c r="CG285" s="1" t="s">
-        <v>3494</v>
       </c>
       <c r="CH285" s="1" t="s">
         <v>130</v>
@@ -63086,10 +62970,10 @@
         <v>87</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>1385</v>
@@ -63104,7 +62988,7 @@
         <v>93</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>1385</v>
@@ -63113,19 +62997,19 @@
         <v>862</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
       <c r="O286" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P286" s="1" t="s">
-        <v>3498</v>
+        <v>3495</v>
       </c>
       <c r="Q286" s="3">
         <v>13756</v>
@@ -63206,7 +63090,7 @@
         <v>19</v>
       </c>
       <c r="BD286" s="1" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="BE286" s="1" t="s">
         <v>113</v>
@@ -63218,13 +63102,13 @@
         <v>115</v>
       </c>
       <c r="BH286" s="1" t="s">
-        <v>3500</v>
+        <v>3497</v>
       </c>
       <c r="BM286" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT286" s="1" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
       <c r="BU286" s="1" t="s">
         <v>122</v>
@@ -63245,16 +63129,16 @@
         <v>110</v>
       </c>
       <c r="CC286" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="CD286" s="1" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
       <c r="CE286" s="1" t="s">
         <v>209</v>
       </c>
       <c r="CG286" s="1" t="s">
-        <v>3503</v>
+        <v>3500</v>
       </c>
       <c r="CH286" s="1" t="s">
         <v>130</v>
@@ -63268,10 +63152,10 @@
         <v>87</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1385</v>
@@ -63286,7 +63170,7 @@
         <v>93</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>1385</v>
@@ -63295,19 +63179,19 @@
         <v>862</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
       <c r="O287" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P287" s="1" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
       <c r="Q287" s="3">
         <v>26074</v>
@@ -63355,7 +63239,7 @@
         <v>0</v>
       </c>
       <c r="AN287" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="AO287" s="1">
         <v>0</v>
@@ -63391,7 +63275,7 @@
         <v>19</v>
       </c>
       <c r="BD287" s="1" t="s">
-        <v>3508</v>
+        <v>3505</v>
       </c>
       <c r="BE287" s="1" t="s">
         <v>113</v>
@@ -63403,19 +63287,19 @@
         <v>115</v>
       </c>
       <c r="BH287" s="1" t="s">
-        <v>3509</v>
+        <v>3506</v>
       </c>
       <c r="BM287" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT287" s="1" t="s">
-        <v>3510</v>
+        <v>3507</v>
       </c>
       <c r="BU287" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW287" s="1" t="s">
-        <v>3511</v>
+        <v>3508</v>
       </c>
       <c r="BX287" s="1">
         <v>0</v>
@@ -63433,16 +63317,16 @@
         <v>110</v>
       </c>
       <c r="CC287" s="1" t="s">
-        <v>3512</v>
+        <v>3509</v>
       </c>
       <c r="CD287" s="1" t="s">
         <v>1393</v>
       </c>
       <c r="CE287" s="1" t="s">
-        <v>3513</v>
+        <v>3510</v>
       </c>
       <c r="CG287" s="1" t="s">
-        <v>3514</v>
+        <v>3511</v>
       </c>
       <c r="CH287" s="1" t="s">
         <v>130</v>
@@ -63456,10 +63340,10 @@
         <v>87</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1385</v>
@@ -63474,7 +63358,7 @@
         <v>93</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I288" s="1" t="s">
         <v>1385</v>
@@ -63483,19 +63367,19 @@
         <v>862</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>3515</v>
+        <v>3512</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>3516</v>
+        <v>3513</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
       <c r="O288" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P288" s="1" t="s">
-        <v>3518</v>
+        <v>3515</v>
       </c>
       <c r="Q288" s="3">
         <v>28808</v>
@@ -63540,7 +63424,7 @@
         <v>0</v>
       </c>
       <c r="AN288" s="1" t="s">
-        <v>3519</v>
+        <v>3516</v>
       </c>
       <c r="AO288" s="1">
         <v>0</v>
@@ -63576,7 +63460,7 @@
         <v>19</v>
       </c>
       <c r="BD288" s="1" t="s">
-        <v>3520</v>
+        <v>3517</v>
       </c>
       <c r="BE288" s="1" t="s">
         <v>113</v>
@@ -63588,13 +63472,13 @@
         <v>115</v>
       </c>
       <c r="BH288" s="1" t="s">
-        <v>3521</v>
+        <v>3518</v>
       </c>
       <c r="BM288" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT288" s="1" t="s">
-        <v>3522</v>
+        <v>3519</v>
       </c>
       <c r="BU288" s="1" t="s">
         <v>122</v>
@@ -63615,16 +63499,16 @@
         <v>110</v>
       </c>
       <c r="CC288" s="1" t="s">
-        <v>3523</v>
+        <v>3520</v>
       </c>
       <c r="CD288" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="CE288" s="1" t="s">
-        <v>3524</v>
+        <v>3521</v>
       </c>
       <c r="CG288" s="1" t="s">
-        <v>3525</v>
+        <v>3522</v>
       </c>
       <c r="CH288" s="1" t="s">
         <v>130</v>
@@ -63638,10 +63522,10 @@
         <v>87</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>1385</v>
@@ -63656,7 +63540,7 @@
         <v>93</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>1385</v>
@@ -63665,19 +63549,19 @@
         <v>862</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>3526</v>
+        <v>3523</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>3527</v>
+        <v>3524</v>
       </c>
       <c r="N289" s="1" t="s">
-        <v>3528</v>
+        <v>3525</v>
       </c>
       <c r="O289" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P289" s="1" t="s">
-        <v>3529</v>
+        <v>3526</v>
       </c>
       <c r="R289" s="1" t="s">
         <v>137</v>
@@ -63698,7 +63582,7 @@
         <v>0</v>
       </c>
       <c r="AG289" s="1" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="AH289" s="1" t="s">
         <v>406</v>
@@ -63713,7 +63597,7 @@
         <v>0</v>
       </c>
       <c r="AN289" s="1" t="s">
-        <v>3530</v>
+        <v>3527</v>
       </c>
       <c r="AO289" s="1">
         <v>0</v>
@@ -63743,7 +63627,7 @@
         <v>19</v>
       </c>
       <c r="BD289" s="1" t="s">
-        <v>3531</v>
+        <v>3528</v>
       </c>
       <c r="BE289" s="1" t="s">
         <v>113</v>
@@ -63755,13 +63639,13 @@
         <v>115</v>
       </c>
       <c r="BH289" s="1" t="s">
-        <v>3532</v>
+        <v>3529</v>
       </c>
       <c r="BM289" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT289" s="1" t="s">
-        <v>3533</v>
+        <v>3530</v>
       </c>
       <c r="BU289" s="1" t="s">
         <v>122</v>
@@ -63779,16 +63663,16 @@
         <v>110</v>
       </c>
       <c r="CC289" s="1" t="s">
-        <v>3534</v>
+        <v>3531</v>
       </c>
       <c r="CD289" s="1" t="s">
         <v>321</v>
       </c>
       <c r="CE289" s="1" t="s">
-        <v>3535</v>
+        <v>3532</v>
       </c>
       <c r="CG289" s="1" t="s">
-        <v>3536</v>
+        <v>3533</v>
       </c>
       <c r="CH289" s="1" t="s">
         <v>130</v>
@@ -63802,10 +63686,10 @@
         <v>87</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>1385</v>
@@ -63820,7 +63704,7 @@
         <v>93</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>1385</v>
@@ -63829,19 +63713,19 @@
         <v>862</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>3537</v>
+        <v>3534</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>3538</v>
+        <v>3535</v>
       </c>
       <c r="N290" s="1" t="s">
-        <v>3539</v>
+        <v>3536</v>
       </c>
       <c r="O290" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P290" s="1" t="s">
-        <v>3540</v>
+        <v>3537</v>
       </c>
       <c r="R290" s="1" t="s">
         <v>137</v>
@@ -63919,7 +63803,7 @@
         <v>19</v>
       </c>
       <c r="BD290" s="1" t="s">
-        <v>3541</v>
+        <v>3538</v>
       </c>
       <c r="BE290" s="1" t="s">
         <v>113</v>
@@ -63931,13 +63815,13 @@
         <v>115</v>
       </c>
       <c r="BH290" s="1" t="s">
-        <v>3542</v>
+        <v>3539</v>
       </c>
       <c r="BM290" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT290" s="1" t="s">
-        <v>3543</v>
+        <v>3540</v>
       </c>
       <c r="BU290" s="1" t="s">
         <v>122</v>
@@ -63955,16 +63839,16 @@
         <v>110</v>
       </c>
       <c r="CC290" s="1" t="s">
+        <v>3541</v>
+      </c>
+      <c r="CD290" s="1" t="s">
+        <v>3542</v>
+      </c>
+      <c r="CE290" s="1" t="s">
+        <v>3543</v>
+      </c>
+      <c r="CG290" s="1" t="s">
         <v>3544</v>
-      </c>
-      <c r="CD290" s="1" t="s">
-        <v>3545</v>
-      </c>
-      <c r="CE290" s="1" t="s">
-        <v>3546</v>
-      </c>
-      <c r="CG290" s="1" t="s">
-        <v>3547</v>
       </c>
       <c r="CH290" s="1" t="s">
         <v>130</v>
@@ -63978,10 +63862,10 @@
         <v>87</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>1385</v>
@@ -63996,7 +63880,7 @@
         <v>93</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I291" s="1" t="s">
         <v>1385</v>
@@ -64005,19 +63889,19 @@
         <v>862</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>3549</v>
+        <v>3546</v>
       </c>
       <c r="N291" s="1" t="s">
-        <v>3550</v>
+        <v>3547</v>
       </c>
       <c r="O291" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P291" s="1" t="s">
-        <v>3551</v>
+        <v>3548</v>
       </c>
       <c r="Q291" s="3">
         <v>29466</v>
@@ -64098,7 +63982,7 @@
         <v>19</v>
       </c>
       <c r="BD291" s="1" t="s">
-        <v>3552</v>
+        <v>3549</v>
       </c>
       <c r="BE291" s="1" t="s">
         <v>113</v>
@@ -64110,13 +63994,13 @@
         <v>115</v>
       </c>
       <c r="BH291" s="1" t="s">
-        <v>3553</v>
+        <v>3550</v>
       </c>
       <c r="BM291" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT291" s="1" t="s">
-        <v>3554</v>
+        <v>3551</v>
       </c>
       <c r="BU291" s="1" t="s">
         <v>122</v>
@@ -64134,16 +64018,16 @@
         <v>110</v>
       </c>
       <c r="CC291" s="1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="CD291" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="CE291" s="1" t="s">
+        <v>3554</v>
+      </c>
+      <c r="CG291" s="1" t="s">
         <v>3555</v>
-      </c>
-      <c r="CD291" s="1" t="s">
-        <v>3556</v>
-      </c>
-      <c r="CE291" s="1" t="s">
-        <v>3557</v>
-      </c>
-      <c r="CG291" s="1" t="s">
-        <v>3558</v>
       </c>
       <c r="CH291" s="1" t="s">
         <v>130</v>
@@ -64157,10 +64041,10 @@
         <v>87</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>1385</v>
@@ -64175,7 +64059,7 @@
         <v>93</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I292" s="1" t="s">
         <v>1385</v>
@@ -64184,22 +64068,22 @@
         <v>862</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>3559</v>
+        <v>3556</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>3560</v>
+        <v>3557</v>
       </c>
       <c r="N292" s="1" t="s">
-        <v>3561</v>
+        <v>3558</v>
       </c>
       <c r="O292" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P292" s="1" t="s">
-        <v>3562</v>
+        <v>3559</v>
       </c>
       <c r="Q292" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="R292" s="1" t="s">
         <v>137</v>
@@ -64241,7 +64125,7 @@
         <v>0</v>
       </c>
       <c r="AN292" s="1" t="s">
-        <v>3563</v>
+        <v>3560</v>
       </c>
       <c r="AO292" s="1">
         <v>0</v>
@@ -64274,7 +64158,7 @@
         <v>19</v>
       </c>
       <c r="BD292" s="1" t="s">
-        <v>3564</v>
+        <v>3561</v>
       </c>
       <c r="BE292" s="1" t="s">
         <v>113</v>
@@ -64286,13 +64170,13 @@
         <v>115</v>
       </c>
       <c r="BH292" s="1" t="s">
-        <v>3565</v>
+        <v>3562</v>
       </c>
       <c r="BM292" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT292" s="1" t="s">
-        <v>3566</v>
+        <v>3563</v>
       </c>
       <c r="BU292" s="1" t="s">
         <v>122</v>
@@ -64310,16 +64194,16 @@
         <v>110</v>
       </c>
       <c r="CC292" s="1" t="s">
+        <v>3564</v>
+      </c>
+      <c r="CD292" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="CE292" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="CG292" s="1" t="s">
         <v>3567</v>
-      </c>
-      <c r="CD292" s="1" t="s">
-        <v>3568</v>
-      </c>
-      <c r="CE292" s="1" t="s">
-        <v>3569</v>
-      </c>
-      <c r="CG292" s="1" t="s">
-        <v>3570</v>
       </c>
       <c r="CH292" s="1" t="s">
         <v>130</v>
@@ -64329,6 +64213,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI292" xr:uid="{0362879B-42D6-4F6E-9986-783B4CA38CCD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>